--- a/biology/Botanique/Virus_de_l'enroulement_apical_de_la_betterave/Virus_de_l'enroulement_apical_de_la_betterave.xlsx
+++ b/biology/Botanique/Virus_de_l'enroulement_apical_de_la_betterave/Virus_de_l'enroulement_apical_de_la_betterave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_l%27enroulement_apical_de_la_betterave</t>
+          <t>Virus_de_l'enroulement_apical_de_la_betterave</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beet curly top virus
 Le virus de l'enroulement apical de la betterave (BCTV, acronyme de Beet curly top virus) est une espèce de phytovirus pathogènes de la famille des Geminiviridae. Ce virus, qui a été isolé sur la betterave, affecte de nombreuses plantes cultivées, notamment parmi les Cucurbitaceae et les Solanaceae, dont la pomme de terre.
